--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,87 +462,87 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>164</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kylian_2</t>
+          <t>T_K RTI_1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>6480</v>
+        <v>6275</v>
       </c>
       <c r="F2" t="n">
-        <v>6490</v>
+        <v>6285</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jason_1</t>
+          <t>T_K RTI_2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>1960</v>
+        <v>2045</v>
       </c>
       <c r="F3" t="n">
-        <v>1990</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>338</v>
+        <v>35</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jason_2</t>
+          <t>Bella_1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6380</v>
+        <v>1950</v>
       </c>
       <c r="F4" t="n">
-        <v>6410</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>431</v>
+        <v>49</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bailey_1</t>
+          <t>Jason_2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>6330</v>
+        <v>6315</v>
       </c>
       <c r="F5" t="n">
         <v>6345</v>
@@ -550,860 +550,596 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>479</v>
+        <v>68</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bailey_2</t>
+          <t>Niko_2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" t="n">
-        <v>6285</v>
+        <v>565</v>
       </c>
       <c r="F6" t="n">
-        <v>6300</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>529</v>
+        <v>85</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chayton_1</t>
+          <t>Chayton_2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="E7" t="n">
-        <v>2185</v>
+        <v>620</v>
       </c>
       <c r="F7" t="n">
-        <v>2200</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>694</v>
+        <v>87</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chayton_2</t>
+          <t>Chayton_3</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>1980</v>
+        <v>2205</v>
       </c>
       <c r="F8" t="n">
-        <v>1995</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>715</v>
+        <v>107</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chayton_3</t>
+          <t>B_E_1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>2210</v>
+        <v>1980</v>
       </c>
       <c r="F9" t="n">
-        <v>2240</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>911</v>
+        <v>135</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Niko_2</t>
+          <t>B_E_2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E10" t="n">
-        <v>2250</v>
+        <v>1995</v>
       </c>
       <c r="F10" t="n">
-        <v>2280</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>991</v>
+        <v>163</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nobel_1</t>
+          <t>Eraj_3</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>600</v>
       </c>
       <c r="F11" t="n">
-        <v>6435</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1088</v>
+        <v>174</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nobel_2</t>
+          <t>A_I_1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E12" t="n">
-        <v>6350</v>
+        <v>765</v>
       </c>
       <c r="F12" t="n">
-        <v>6360</v>
+        <v>795</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>1197</v>
+        <v>177</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Alex_1</t>
+          <t>Alex_2</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E13" t="n">
-        <v>770</v>
+        <v>2220</v>
       </c>
       <c r="F13" t="n">
-        <v>800</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>1300</v>
+        <v>179</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Alex_2</t>
+          <t>Isabel_2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>510</v>
+        <v>2140</v>
       </c>
       <c r="F14" t="n">
-        <v>540</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1332</v>
+        <v>206</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Eraj_1</t>
+          <t>s_z_1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E15" t="n">
-        <v>2010</v>
+        <v>510</v>
       </c>
       <c r="F15" t="n">
-        <v>2025</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1486</v>
+        <v>229</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Eraj_2</t>
+          <t>s_z_2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E16" t="n">
-        <v>1965</v>
+        <v>640</v>
       </c>
       <c r="F16" t="n">
-        <v>1980</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>1539</v>
+        <v>235</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Eraj_3</t>
+          <t>Kirill_1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E17" t="n">
-        <v>1950</v>
+        <v>2170</v>
       </c>
       <c r="F17" t="n">
-        <v>1965</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1654</v>
+        <v>259</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Isaac_1</t>
+          <t>Kirill_2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E18" t="n">
-        <v>755</v>
+        <v>6270</v>
       </c>
       <c r="F18" t="n">
-        <v>765</v>
+        <v>6275</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1743</v>
+        <v>294</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Isaac_2</t>
+          <t>Kirill_3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E19" t="n">
-        <v>6335</v>
+        <v>6355</v>
       </c>
       <c r="F19" t="n">
-        <v>6345</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1797</v>
+        <v>304</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kirill_1</t>
+          <t>Kirill_4</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E20" t="n">
-        <v>6470</v>
+        <v>6285</v>
       </c>
       <c r="F20" t="n">
-        <v>6475</v>
+        <v>6315</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1853</v>
+        <v>310</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kirill_2</t>
+          <t>Stuppi_1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>840</v>
+        <v>2010</v>
       </c>
       <c r="F21" t="n">
-        <v>845</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>2001</v>
+        <v>334</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Kirill_3</t>
+          <t>Stuppi_2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="E22" t="n">
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="F22" t="n">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>2061</v>
+        <v>359</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Kirill_4</t>
+          <t>Nicholas_2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E23" t="n">
-        <v>6440</v>
+        <v>6375</v>
       </c>
       <c r="F23" t="n">
-        <v>6470</v>
+        <v>6385</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>2130</v>
+        <v>374</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>London_1</t>
+          <t>Nicholas_3</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="E24" t="n">
-        <v>6350</v>
+        <v>6450</v>
       </c>
       <c r="F24" t="n">
-        <v>6360</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>2202</v>
+        <v>387</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>London_2</t>
+          <t>Nicholas_4</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="E25" t="n">
-        <v>6335</v>
+        <v>740</v>
       </c>
       <c r="F25" t="n">
-        <v>6345</v>
+        <v>750</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>2334</v>
+        <v>405</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Nicholas_1</t>
+          <t>Barnes_1</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E26" t="n">
-        <v>2155</v>
+        <v>6420</v>
       </c>
       <c r="F26" t="n">
-        <v>2165</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>2477</v>
+        <v>417</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nicholas_3</t>
+          <t>Barnes_2</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E27" t="n">
-        <v>540</v>
+        <v>815</v>
       </c>
       <c r="F27" t="n">
-        <v>550</v>
+        <v>845</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>2563</v>
+        <v>425</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nicholas_4</t>
+          <t>Vedh_1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E28" t="n">
-        <v>2180</v>
+        <v>695</v>
       </c>
       <c r="F28" t="n">
-        <v>2210</v>
+        <v>725</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>2667</v>
+        <v>434</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Isabel_1</t>
+          <t>Vedh_2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E29" t="n">
-        <v>6330</v>
+        <v>6385</v>
       </c>
       <c r="F29" t="n">
-        <v>6360</v>
+        <v>6415</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>2758</v>
+        <v>440</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Isabel_2</t>
+          <t>5th_1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E30" t="n">
-        <v>2220</v>
+        <v>2255</v>
       </c>
       <c r="F30" t="n">
-        <v>2250</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>2871</v>
+        <v>449</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Patrick_1</t>
+          <t>5th_2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E31" t="n">
-        <v>810</v>
+        <v>650</v>
       </c>
       <c r="F31" t="n">
-        <v>840</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>2941</v>
+        <v>451</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Patrick_2</t>
+          <t>MENDEZ</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E32" t="n">
-        <v>6410</v>
+        <v>550</v>
       </c>
       <c r="F32" t="n">
-        <v>6440</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>3080</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Yasmine_2</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>3</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1950</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>3249</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Jayden_1</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>3</v>
-      </c>
-      <c r="D34" t="n">
-        <v>81</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2040</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>3294</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Jayden_2</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>3</v>
-      </c>
-      <c r="D35" t="n">
-        <v>38</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2010</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>3371</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Angela_1</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>3</v>
-      </c>
-      <c r="D36" t="n">
-        <v>27</v>
-      </c>
-      <c r="E36" t="n">
-        <v>6300</v>
-      </c>
-      <c r="F36" t="n">
-        <v>6330</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>3461</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Angela_2</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>3</v>
-      </c>
-      <c r="D37" t="n">
-        <v>29</v>
-      </c>
-      <c r="E37" t="n">
-        <v>740</v>
-      </c>
-      <c r="F37" t="n">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>3580</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Vedh_1</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>4</v>
-      </c>
-      <c r="D38" t="n">
-        <v>60</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1950</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>3613</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Vedh_2</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>4</v>
-      </c>
-      <c r="D39" t="n">
-        <v>5</v>
-      </c>
-      <c r="E39" t="n">
-        <v>810</v>
-      </c>
-      <c r="F39" t="n">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>3732</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Yorsi_1</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>5</v>
-      </c>
-      <c r="D40" t="n">
-        <v>36</v>
-      </c>
-      <c r="E40" t="n">
-        <v>6330</v>
-      </c>
-      <c r="F40" t="n">
-        <v>6360</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>3835</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Yorsi_2</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>5</v>
-      </c>
-      <c r="D41" t="n">
-        <v>51</v>
-      </c>
-      <c r="E41" t="n">
-        <v>695</v>
-      </c>
-      <c r="F41" t="n">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>3873</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Jesus_1</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>5</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>2155</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>3972</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Jesus_2</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>5</v>
-      </c>
-      <c r="D43" t="n">
-        <v>12</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1980</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>4081</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>MENDEZ</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>33</v>
-      </c>
-      <c r="E44" t="n">
-        <v>615</v>
-      </c>
-      <c r="F44" t="n">
-        <v>630</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -473,18 +473,18 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>6275</v>
+        <v>2040</v>
       </c>
       <c r="F2" t="n">
-        <v>6285</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -495,18 +495,18 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>2045</v>
+        <v>510</v>
       </c>
       <c r="F3" t="n">
-        <v>2055</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -517,18 +517,18 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n">
-        <v>1950</v>
+        <v>2190</v>
       </c>
       <c r="F4" t="n">
-        <v>1980</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -539,18 +539,18 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="E5" t="n">
-        <v>6315</v>
+        <v>555</v>
       </c>
       <c r="F5" t="n">
-        <v>6345</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -561,18 +561,18 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E6" t="n">
-        <v>565</v>
+        <v>6360</v>
       </c>
       <c r="F6" t="n">
-        <v>595</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -583,18 +583,18 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E7" t="n">
-        <v>620</v>
+        <v>6420</v>
       </c>
       <c r="F7" t="n">
-        <v>635</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -605,18 +605,18 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>2205</v>
+        <v>6330</v>
       </c>
       <c r="F8" t="n">
-        <v>2220</v>
+        <v>6345</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -627,18 +627,18 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E9" t="n">
-        <v>1980</v>
+        <v>2010</v>
       </c>
       <c r="F9" t="n">
-        <v>1995</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -649,18 +649,18 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E10" t="n">
-        <v>1995</v>
+        <v>600</v>
       </c>
       <c r="F10" t="n">
-        <v>2010</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -671,18 +671,18 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>600</v>
+        <v>725</v>
       </c>
       <c r="F11" t="n">
-        <v>615</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -693,453 +693,475 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E12" t="n">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="F12" t="n">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Alex_2</t>
+          <t>Isabel_2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E13" t="n">
-        <v>2220</v>
+        <v>6300</v>
       </c>
       <c r="F13" t="n">
-        <v>2250</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Isabel_2</t>
+          <t>s_z_1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>2140</v>
+        <v>6270</v>
       </c>
       <c r="F14" t="n">
-        <v>2170</v>
+        <v>6280</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>206</v>
+        <v>85</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>s_z_1</t>
+          <t>s_z_2</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>510</v>
+        <v>665</v>
       </c>
       <c r="F15" t="n">
-        <v>520</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>229</v>
+        <v>94</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>s_z_2</t>
+          <t>Kirill_1</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E16" t="n">
-        <v>640</v>
+        <v>6355</v>
       </c>
       <c r="F16" t="n">
-        <v>650</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kirill_1</t>
+          <t>Kirill_2</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E17" t="n">
-        <v>2170</v>
+        <v>2085</v>
       </c>
       <c r="F17" t="n">
-        <v>2175</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>259</v>
+        <v>106</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Kirill_2</t>
+          <t>Kirill_3</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18" t="n">
-        <v>6270</v>
+        <v>525</v>
       </c>
       <c r="F18" t="n">
-        <v>6275</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>294</v>
+        <v>115</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kirill_3</t>
+          <t>Kirill_4</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E19" t="n">
-        <v>6355</v>
+        <v>775</v>
       </c>
       <c r="F19" t="n">
-        <v>6360</v>
+        <v>805</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>304</v>
+        <v>119</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kirill_4</t>
+          <t>Stuppi_1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="E20" t="n">
-        <v>6285</v>
+        <v>615</v>
       </c>
       <c r="F20" t="n">
-        <v>6315</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>310</v>
+        <v>122</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Stuppi_1</t>
+          <t>Stuppi_2</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>2010</v>
+        <v>2055</v>
       </c>
       <c r="F21" t="n">
-        <v>2040</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>334</v>
+        <v>129</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Stuppi_2</t>
+          <t>Nicholas_2</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>520</v>
+        <v>1950</v>
       </c>
       <c r="F22" t="n">
-        <v>550</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>359</v>
+        <v>139</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nicholas_2</t>
+          <t>Nicholas_3</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E23" t="n">
-        <v>6375</v>
+        <v>6345</v>
       </c>
       <c r="F23" t="n">
-        <v>6385</v>
+        <v>6355</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>374</v>
+        <v>144</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Nicholas_3</t>
+          <t>Nicholas_4</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>6450</v>
+        <v>2250</v>
       </c>
       <c r="F24" t="n">
-        <v>6460</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>387</v>
+        <v>156</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nicholas_4</t>
+          <t>Barnes_1</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E25" t="n">
-        <v>740</v>
+        <v>815</v>
       </c>
       <c r="F25" t="n">
-        <v>750</v>
+        <v>845</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>405</v>
+        <v>160</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Barnes_1</t>
+          <t>Barnes_2</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E26" t="n">
-        <v>6420</v>
+        <v>2220</v>
       </c>
       <c r="F26" t="n">
-        <v>6450</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>417</v>
+        <v>167</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Barnes_2</t>
+          <t>Vedh_1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E27" t="n">
-        <v>815</v>
+        <v>695</v>
       </c>
       <c r="F27" t="n">
-        <v>845</v>
+        <v>725</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>425</v>
+        <v>168</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Vedh_1</t>
+          <t>Vedh_2</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E28" t="n">
-        <v>695</v>
+        <v>2115</v>
       </c>
       <c r="F28" t="n">
-        <v>725</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>434</v>
+        <v>176</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Vedh_2</t>
+          <t>5th_1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E29" t="n">
-        <v>6385</v>
+        <v>2260</v>
       </c>
       <c r="F29" t="n">
-        <v>6415</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>440</v>
+        <v>179</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5th_1</t>
+          <t>5th_2</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E30" t="n">
-        <v>2255</v>
+        <v>1965</v>
       </c>
       <c r="F30" t="n">
-        <v>2285</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>449</v>
+        <v>182</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5th_2</t>
+          <t>MENDEZ</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E31" t="n">
-        <v>650</v>
+        <v>540</v>
       </c>
       <c r="F31" t="n">
-        <v>680</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>451</v>
+        <v>187</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MENDEZ</t>
+          <t>LUNCH_2</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="E32" t="n">
-        <v>550</v>
+        <v>2160</v>
       </c>
       <c r="F32" t="n">
-        <v>565</v>
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>LUNCH_3</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>63</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6460</v>
+      </c>
+      <c r="F33" t="n">
+        <v>6490</v>
       </c>
     </row>
   </sheetData>
